--- a/mappings/package_can_part3/transformation/conceptual_mappings_CAN_Part3.xlsx
+++ b/mappings/package_can_part3/transformation/conceptual_mappings_CAN_Part3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\NET1.cec.eu.int\offline\11\hajlana\My Documents\My Documents\my_workspace\Professional\OP\C3003_TED\EPO\TEDSWS\eForms2RDF\BDC46327\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eceuropaeu.sharepoint.com/teams/GRP-TEDSWS/Shared Documents/eForms2RDF/BDC46327/CompetitionNoticeConceptualModelCheck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E1DB0C-9DD6-4F3F-A2FE-E3232ABDC404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="730" documentId="8_{0F1C673E-3AEE-47C1-AB4F-8757AE0961D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84412CFF-32E6-482F-92FA-9BD727E542FB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9520" yWindow="-10910" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5212" uniqueCount="2499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5219" uniqueCount="2506">
   <si>
     <t>Field</t>
   </si>
@@ -7119,6 +7119,9 @@
     <t>String values that are codes or identifiers need to be marked as rdf:PlainLiteral. Any other cell that expects values in several languages need to be marked as langString otherwise it should be plain literal as in the ontology. This is important as we want to materialize identifiers without languages tags in the RDF and languages to be integrated where necessary.</t>
   </si>
   <si>
+    <t>The status values need to be reviewed: “OP: Looks ok” or “OP: see comments”</t>
+  </si>
+  <si>
     <t>General comments: The black, grey and yallow colours are wrongly used. For instance not all nodes are in yallow while some fields  (BTs) are in yallow. The contractor regconised these errurs during the delivery meeting and expressed that the row 42 is the only one that should be in grey.</t>
   </si>
   <si>
@@ -7560,9 +7563,6 @@
   <si>
     <t>This is not a technical identifier it is part of the Regulation
 It is up to the contract to see if instantiating the technical identifiers and references are required, it is not necessarily all or nothing the general rule if the concepts are associated to one another for the given reason an additional identifier such as the OPT should not be necessary this is due to the fact that we have predicates in the RDF which are not present in the xml.</t>
-  </si>
-  <si>
-    <t>OP: to confirm later</t>
   </si>
   <si>
     <t>As noted previously "This is the technical identifier in the xml that connects the LotResult to the Contract(s) and therefore an ADMS identifier is unnecessary as long as the appropriate relations are instantiated. The contractor should not remove all ADMS identifiers before checking whether they are needed or not due to instantiations or non-instantiations</t>
@@ -7593,23 +7593,44 @@
     <t>I am missing BT-633-Organization.  The contractor is asked to check if any other fields are missing.  BT-08 also may be missing</t>
   </si>
   <si>
-    <t>OP: looks ok, See also comments</t>
-  </si>
-  <si>
-    <t>The status values need to be reviewed: “OP: Looks ok” or “OP: See comments”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OP: See comments</t>
+    <t>This is a technical label that an author may use to identify the tendering party, it only has value within the notice itself.  It is upto the contractor to see if this name is really needed in the rdf as it is a technical label.  It would however be better to use the epo:hasAlias in the class foaf:Agent.</t>
+  </si>
+  <si>
+    <t>We are not sure a generalisation can be made for the technical identifiers. In this particular case the Buyer that is responsible for the procedure may not be the Buyer that signs the contract.  The contractor must ensure that an instansiation is made between the correct instantiation of the Buyer  and the Contract via the epo:signedByBuyer.  Therefore the ADMS identifier should not be necessary</t>
+  </si>
+  <si>
+    <t>OP: Looks OK</t>
+  </si>
+  <si>
+    <t>This is probably how all the technical identifiers should have been treated.</t>
+  </si>
+  <si>
+    <t>An organisation of type tenderer or winner needs to be specialised as a businessf to allow the mapping of BT-165-Organization-Company.</t>
+  </si>
+  <si>
+    <t>There needs to be an instantiation of epo:Business epo:hasBenificialOwner person:Person needs to be instantiated for this mapping to work.  The business needs to be a Tenderer or a winner.</t>
+  </si>
+  <si>
+    <t>Technical identifiers should probably in general be treated as per Row 34 in the Rules sheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP: Looks ok </t>
+  </si>
+  <si>
+    <t>OP: Looks ok, See also comments</t>
   </si>
   <si>
     <t>OP: Looks ok</t>
+  </si>
+  <si>
+    <t>This is not mappable as the ontology is missing the predicate epo:hasApproximateFrameworkAgreementValue between epo:LotGroupAwardInformation and epo:MonetaryValue.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -7621,97 +7642,82 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF9900FF"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color rgb="FFB7B7B7"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFB7B7B7"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFB7B7B7"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF212529"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7722,34 +7728,29 @@
       <sz val="12"/>
       <color rgb="FF666666"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7757,7 +7758,6 @@
       <sz val="10"/>
       <color rgb="FF0C5ADB"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -7769,7 +7769,6 @@
       <sz val="10"/>
       <color rgb="FFFFC000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -7795,15 +7794,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7868,6 +7860,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0B5394"/>
         <bgColor rgb="FF0B5394"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -7942,7 +7940,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8153,6 +8151,9 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8177,7 +8178,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8406,11 +8409,11 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
     <col min="4" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -36482,40 +36485,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K48" sqref="K48"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="67" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="67" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="6.36328125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="67" customWidth="1"/>
     <col min="4" max="4" width="20" style="67" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="67" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="67" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" style="67" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="67" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="67" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="67" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="67" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" style="67" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" style="67" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" style="67" customWidth="1"/>
-    <col min="15" max="15" width="32.88671875" style="67" customWidth="1"/>
+    <col min="5" max="5" width="8.453125" style="67" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" style="67" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" style="67" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" style="67" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" style="67" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" style="67" customWidth="1"/>
+    <col min="11" max="11" width="12.36328125" style="67" customWidth="1"/>
+    <col min="12" max="12" width="16.54296875" style="67" customWidth="1"/>
+    <col min="13" max="13" width="8.6328125" style="67" customWidth="1"/>
+    <col min="14" max="14" width="9.6328125" style="67" customWidth="1"/>
+    <col min="15" max="15" width="32.90625" style="67" customWidth="1"/>
     <col min="16" max="26" width="11" style="67" customWidth="1"/>
-    <col min="27" max="16384" width="12.5546875" style="67"/>
+    <col min="27" max="16384" width="12.54296875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="34.950000000000003" customHeight="1">
+    <row r="1" spans="1:26" ht="35" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -36573,7 +36576,7 @@
       <c r="Y1" s="12"/>
       <c r="Z1" s="12"/>
     </row>
-    <row r="2" spans="1:26" ht="70.2" hidden="1" customHeight="1">
+    <row r="2" spans="1:26" ht="70.25" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="14" t="s">
         <v>45</v>
@@ -36599,7 +36602,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
-      <c r="N2" s="89" t="s">
+      <c r="N2" s="90" t="s">
         <v>52</v>
       </c>
       <c r="O2" s="4"/>
@@ -36615,7 +36618,7 @@
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
     </row>
-    <row r="3" spans="1:26" ht="70.2" hidden="1" customHeight="1">
+    <row r="3" spans="1:26" ht="70.25" customHeight="1">
       <c r="A3" s="16">
         <v>1.1000000000000001</v>
       </c>
@@ -36639,7 +36642,7 @@
       <c r="K3" s="16"/>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="90"/>
+      <c r="N3" s="91"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -36653,7 +36656,7 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26" ht="70.2" customHeight="1">
+    <row r="4" spans="1:26" ht="70.25" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4">
         <v>1.5</v>
@@ -36682,8 +36685,8 @@
       <c r="J4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>2498</v>
+      <c r="K4" s="81" t="s">
+        <v>2502</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>61</v>
@@ -36705,7 +36708,7 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
     </row>
-    <row r="5" spans="1:26" ht="70.2" customHeight="1">
+    <row r="5" spans="1:26" ht="70.25" customHeight="1">
       <c r="A5" s="4">
         <v>1.6</v>
       </c>
@@ -36734,8 +36737,8 @@
       <c r="J5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>2498</v>
+      <c r="K5" s="81" t="s">
+        <v>2502</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>61</v>
@@ -36757,7 +36760,7 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
     </row>
-    <row r="6" spans="1:26" ht="70.2" hidden="1" customHeight="1">
+    <row r="6" spans="1:26" ht="70.25" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>1.5</v>
@@ -36786,8 +36789,8 @@
       <c r="J6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="82" t="s">
-        <v>2486</v>
+      <c r="K6" s="84" t="s">
+        <v>2504</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>61</v>
@@ -36809,7 +36812,7 @@
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
     </row>
-    <row r="7" spans="1:26" ht="70.2" hidden="1" customHeight="1">
+    <row r="7" spans="1:26" ht="70.25" customHeight="1">
       <c r="A7" s="14">
         <v>1.6</v>
       </c>
@@ -36838,8 +36841,8 @@
       <c r="J7" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="K7" s="82" t="s">
-        <v>2486</v>
+      <c r="K7" s="84" t="s">
+        <v>2504</v>
       </c>
       <c r="L7" s="14" t="s">
         <v>61</v>
@@ -36859,7 +36862,7 @@
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
     </row>
-    <row r="8" spans="1:26" ht="70.2" hidden="1" customHeight="1">
+    <row r="8" spans="1:26" ht="70.25" customHeight="1">
       <c r="A8" s="16">
         <v>1.5</v>
       </c>
@@ -36888,8 +36891,8 @@
       <c r="J8" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="82" t="s">
-        <v>2486</v>
+      <c r="K8" s="93" t="s">
+        <v>73</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>61</v>
@@ -36900,7 +36903,9 @@
       <c r="N8" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="12"/>
+      <c r="O8" s="12" t="s">
+        <v>2505</v>
+      </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
@@ -36913,7 +36918,7 @@
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
     </row>
-    <row r="9" spans="1:26" ht="70.2" hidden="1" customHeight="1">
+    <row r="9" spans="1:26" ht="70.25" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>45</v>
       </c>
@@ -36941,12 +36946,14 @@
         <v>91</v>
       </c>
       <c r="K9" s="82" t="s">
-        <v>2486</v>
+        <v>73</v>
       </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="12"/>
+      <c r="O9" s="12" t="s">
+        <v>2495</v>
+      </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -36959,7 +36966,7 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
     </row>
-    <row r="10" spans="1:26" ht="70.2" customHeight="1">
+    <row r="10" spans="1:26" ht="70.25" customHeight="1">
       <c r="A10" s="4">
         <v>1.8</v>
       </c>
@@ -36976,8 +36983,8 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
-        <v>2498</v>
+      <c r="K10" s="81" t="s">
+        <v>2502</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -36995,7 +37002,7 @@
       <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
     </row>
-    <row r="11" spans="1:26" ht="70.2" customHeight="1">
+    <row r="11" spans="1:26" ht="70.25" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>1.7</v>
@@ -37018,8 +37025,8 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
-        <v>2498</v>
+      <c r="K11" s="81" t="s">
+        <v>2502</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>99</v>
@@ -37041,7 +37048,7 @@
       <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
     </row>
-    <row r="12" spans="1:26" ht="70.2" customHeight="1">
+    <row r="12" spans="1:26" ht="70.25" customHeight="1">
       <c r="A12" s="4">
         <v>1.8</v>
       </c>
@@ -37064,8 +37071,8 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
-        <v>2498</v>
+      <c r="K12" s="81" t="s">
+        <v>2502</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>99</v>
@@ -37089,7 +37096,7 @@
       <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
     </row>
-    <row r="13" spans="1:26" ht="70.2" hidden="1" customHeight="1">
+    <row r="13" spans="1:26" ht="70.25" customHeight="1">
       <c r="A13" s="14">
         <v>1.8</v>
       </c>
@@ -37123,7 +37130,7 @@
       <c r="Y13" s="12"/>
       <c r="Z13" s="12"/>
     </row>
-    <row r="14" spans="1:26" ht="70.2" customHeight="1">
+    <row r="14" spans="1:26" ht="70.25" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="16">
         <v>1.7</v>
@@ -37151,7 +37158,7 @@
         <v>110</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="L14" s="14"/>
       <c r="M14" s="14" t="s">
@@ -37159,7 +37166,7 @@
       </c>
       <c r="N14" s="14"/>
       <c r="O14" s="81" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
@@ -37173,7 +37180,7 @@
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
     </row>
-    <row r="15" spans="1:26" ht="70.2" customHeight="1">
+    <row r="15" spans="1:26" ht="70.25" customHeight="1">
       <c r="A15" s="4">
         <v>1.8</v>
       </c>
@@ -37201,7 +37208,7 @@
         <v>110</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
@@ -37211,7 +37218,7 @@
         <v>113</v>
       </c>
       <c r="O15" s="81" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
@@ -37225,7 +37232,7 @@
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
     </row>
-    <row r="16" spans="1:26" ht="70.2" hidden="1" customHeight="1">
+    <row r="16" spans="1:26" ht="70.25" customHeight="1">
       <c r="A16" s="18">
         <v>1.8</v>
       </c>
@@ -37259,7 +37266,7 @@
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="1:26" ht="70.2" hidden="1" customHeight="1">
+    <row r="17" spans="1:26" ht="275.25" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="18">
         <v>1.7</v>
@@ -37286,15 +37293,17 @@
       <c r="J17" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="82" t="s">
-        <v>2486</v>
+      <c r="K17" s="84" t="s">
+        <v>73</v>
       </c>
       <c r="L17" s="18"/>
       <c r="M17" s="4" t="s">
         <v>111</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="12"/>
+      <c r="O17" s="81" t="s">
+        <v>2496</v>
+      </c>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
@@ -37307,7 +37316,7 @@
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
     </row>
-    <row r="18" spans="1:26" ht="343.2">
+    <row r="18" spans="1:26" ht="301">
       <c r="A18" s="18">
         <v>1.8</v>
       </c>
@@ -37334,8 +37343,8 @@
       <c r="J18" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>2498</v>
+      <c r="K18" s="88" t="s">
+        <v>2502</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4" t="s">
@@ -37357,7 +37366,7 @@
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
     </row>
-    <row r="19" spans="1:26" ht="132">
+    <row r="19" spans="1:26" ht="113.5">
       <c r="A19" s="4"/>
       <c r="B19" s="4">
         <v>1.5</v>
@@ -37385,7 +37394,7 @@
         <v>130</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>131</v>
@@ -37405,7 +37414,7 @@
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
     </row>
-    <row r="20" spans="1:26" ht="132">
+    <row r="20" spans="1:26" ht="113.5">
       <c r="A20" s="14">
         <v>1.6</v>
       </c>
@@ -37432,8 +37441,8 @@
       <c r="J20" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>2498</v>
+      <c r="K20" s="81" t="s">
+        <v>2502</v>
       </c>
       <c r="L20" s="14" t="s">
         <v>131</v>
@@ -37453,7 +37462,7 @@
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
     </row>
-    <row r="21" spans="1:26" ht="118.8">
+    <row r="21" spans="1:26" ht="113.5">
       <c r="A21" s="16" t="s">
         <v>45</v>
       </c>
@@ -37481,7 +37490,7 @@
         <v>139</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
@@ -37499,7 +37508,7 @@
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
     </row>
-    <row r="22" spans="1:26" ht="118.8" hidden="1">
+    <row r="22" spans="1:26" ht="113.5">
       <c r="A22" s="4"/>
       <c r="B22" s="4">
         <v>1.8</v>
@@ -37533,7 +37542,7 @@
       <c r="Y22" s="12"/>
       <c r="Z22" s="12"/>
     </row>
-    <row r="23" spans="1:26" ht="145.19999999999999">
+    <row r="23" spans="1:26" ht="138.5">
       <c r="A23" s="18"/>
       <c r="B23" s="18">
         <v>1.8</v>
@@ -37563,7 +37572,7 @@
         <v>149</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>61</v>
@@ -37583,7 +37592,7 @@
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
     </row>
-    <row r="24" spans="1:26" ht="158.4">
+    <row r="24" spans="1:26" ht="151">
       <c r="A24" s="4" t="s">
         <v>45</v>
       </c>
@@ -37613,7 +37622,7 @@
         <v>149</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>61</v>
@@ -37633,7 +37642,7 @@
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
     </row>
-    <row r="25" spans="1:26" ht="132">
+    <row r="25" spans="1:26" ht="126">
       <c r="A25" s="14"/>
       <c r="B25" s="14">
         <v>1.8</v>
@@ -37663,7 +37672,7 @@
         <v>158</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="L25" s="14" t="s">
         <v>61</v>
@@ -37683,7 +37692,7 @@
       <c r="Y25" s="12"/>
       <c r="Z25" s="12"/>
     </row>
-    <row r="26" spans="1:26" ht="158.4">
+    <row r="26" spans="1:26" ht="151">
       <c r="A26" s="16" t="s">
         <v>45</v>
       </c>
@@ -37713,7 +37722,7 @@
         <v>158</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="L26" s="14" t="s">
         <v>61</v>
@@ -37733,7 +37742,7 @@
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
     </row>
-    <row r="27" spans="1:26" ht="132">
+    <row r="27" spans="1:26" ht="126">
       <c r="A27" s="16"/>
       <c r="B27" s="16">
         <v>1.8</v>
@@ -37763,7 +37772,7 @@
         <v>166</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="L27" s="16" t="s">
         <v>61</v>
@@ -37783,7 +37792,7 @@
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
     </row>
-    <row r="28" spans="1:26" ht="158.4">
+    <row r="28" spans="1:26" ht="151">
       <c r="A28" s="4" t="s">
         <v>45</v>
       </c>
@@ -37813,7 +37822,7 @@
         <v>166</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>61</v>
@@ -37833,7 +37842,7 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
     </row>
-    <row r="29" spans="1:26" ht="171.6" hidden="1">
+    <row r="29" spans="1:26" ht="151">
       <c r="A29" s="14"/>
       <c r="B29" s="14">
         <v>1.8</v>
@@ -37856,8 +37865,8 @@
       </c>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
-      <c r="K29" s="84" t="s">
-        <v>2495</v>
+      <c r="K29" s="85" t="s">
+        <v>2503</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>173</v>
@@ -37879,7 +37888,7 @@
       <c r="Y29" s="12"/>
       <c r="Z29" s="12"/>
     </row>
-    <row r="30" spans="1:26" ht="171.6" hidden="1">
+    <row r="30" spans="1:26" ht="151">
       <c r="A30" s="4" t="s">
         <v>45</v>
       </c>
@@ -37902,8 +37911,8 @@
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="4" t="s">
-        <v>2495</v>
+      <c r="K30" s="81" t="s">
+        <v>2503</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>173</v>
@@ -37925,7 +37934,7 @@
       <c r="Y30" s="12"/>
       <c r="Z30" s="12"/>
     </row>
-    <row r="31" spans="1:26" ht="171.6" hidden="1">
+    <row r="31" spans="1:26" ht="151">
       <c r="A31" s="14"/>
       <c r="B31" s="14">
         <v>1.8</v>
@@ -37948,8 +37957,8 @@
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
-      <c r="K31" s="4" t="s">
-        <v>2495</v>
+      <c r="K31" s="81" t="s">
+        <v>2503</v>
       </c>
       <c r="L31" s="14" t="s">
         <v>173</v>
@@ -37971,7 +37980,7 @@
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
     </row>
-    <row r="32" spans="1:26" ht="171.6" hidden="1">
+    <row r="32" spans="1:26" ht="163.5">
       <c r="A32" s="4" t="s">
         <v>45</v>
       </c>
@@ -37994,8 +38003,8 @@
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4" t="s">
-        <v>2495</v>
+      <c r="K32" s="81" t="s">
+        <v>2503</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>173</v>
@@ -38017,7 +38026,7 @@
       <c r="Y32" s="12"/>
       <c r="Z32" s="12"/>
     </row>
-    <row r="33" spans="1:26" ht="105.6">
+    <row r="33" spans="1:26" ht="101">
       <c r="A33" s="4">
         <v>1.8</v>
       </c>
@@ -38035,7 +38044,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -38053,7 +38062,7 @@
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
     </row>
-    <row r="34" spans="1:26" ht="70.2" hidden="1" customHeight="1">
+    <row r="34" spans="1:26" ht="70.25" customHeight="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4">
         <v>1.7</v>
@@ -38080,8 +38089,8 @@
       <c r="J34" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="K34" s="82" t="s">
-        <v>2486</v>
+      <c r="K34" s="84" t="s">
+        <v>2503</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>191</v>
@@ -38089,8 +38098,9 @@
       <c r="M34" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="N34" s="4"/>
-      <c r="O34" s="12"/>
+      <c r="O34" s="81" t="s">
+        <v>2498</v>
+      </c>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
@@ -38103,7 +38113,7 @@
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
     </row>
-    <row r="35" spans="1:26" ht="70.2" hidden="1" customHeight="1">
+    <row r="35" spans="1:26" ht="70.25" customHeight="1">
       <c r="A35" s="4">
         <v>1.8</v>
       </c>
@@ -38130,8 +38140,8 @@
       <c r="J35" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="K35" s="82" t="s">
-        <v>2486</v>
+      <c r="K35" s="84" t="s">
+        <v>2497</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>191</v>
@@ -38155,7 +38165,7 @@
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
     </row>
-    <row r="36" spans="1:26" ht="105.6" hidden="1">
+    <row r="36" spans="1:26" ht="101">
       <c r="A36" s="4">
         <v>1.8</v>
       </c>
@@ -38189,7 +38199,7 @@
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
     </row>
-    <row r="37" spans="1:26" ht="264.60000000000002" hidden="1">
+    <row r="37" spans="1:26" ht="239">
       <c r="A37" s="4"/>
       <c r="B37" s="4">
         <v>1.7</v>
@@ -38216,7 +38226,7 @@
       <c r="J37" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="K37" s="86" t="s">
+      <c r="K37" s="87" t="s">
         <v>73</v>
       </c>
       <c r="L37" s="4" t="s">
@@ -38226,7 +38236,7 @@
         <v>111</v>
       </c>
       <c r="N37" s="4"/>
-      <c r="O37" s="85" t="s">
+      <c r="O37" s="86" t="s">
         <v>2487</v>
       </c>
       <c r="P37" s="12"/>
@@ -38241,7 +38251,7 @@
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
     </row>
-    <row r="38" spans="1:26" ht="317.39999999999998" hidden="1">
+    <row r="38" spans="1:26" ht="276.5">
       <c r="A38" s="4">
         <v>1.8</v>
       </c>
@@ -38268,7 +38278,7 @@
       <c r="J38" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="K38" s="87" t="s">
+      <c r="K38" s="88" t="s">
         <v>73</v>
       </c>
       <c r="L38" s="4" t="s">
@@ -38280,7 +38290,7 @@
       <c r="N38" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="O38" s="85" t="s">
+      <c r="O38" s="86" t="s">
         <v>2487</v>
       </c>
       <c r="P38" s="12"/>
@@ -38295,7 +38305,7 @@
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
     </row>
-    <row r="39" spans="1:26" ht="145.19999999999999">
+    <row r="39" spans="1:26" ht="138.5">
       <c r="A39" s="4"/>
       <c r="B39" s="4">
         <v>1.5</v>
@@ -38325,7 +38335,7 @@
         <v>212</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>61</v>
@@ -38345,7 +38355,7 @@
       <c r="Y39" s="12"/>
       <c r="Z39" s="12"/>
     </row>
-    <row r="40" spans="1:26" ht="12.6" customHeight="1">
+    <row r="40" spans="1:26" ht="12.65" customHeight="1">
       <c r="A40" s="18">
         <v>1.6</v>
       </c>
@@ -38375,7 +38385,7 @@
         <v>212</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>61</v>
@@ -38395,7 +38405,7 @@
       <c r="Y40" s="12"/>
       <c r="Z40" s="12"/>
     </row>
-    <row r="41" spans="1:26" ht="92.25" hidden="1" customHeight="1">
+    <row r="41" spans="1:26" ht="92.25" customHeight="1">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14" t="s">
@@ -38439,7 +38449,7 @@
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
     </row>
-    <row r="42" spans="1:26" ht="69.75" hidden="1" customHeight="1">
+    <row r="42" spans="1:26" ht="69.75" customHeight="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
@@ -38485,7 +38495,7 @@
       <c r="Y42" s="12"/>
       <c r="Z42" s="12"/>
     </row>
-    <row r="43" spans="1:26" ht="70.2" customHeight="1">
+    <row r="43" spans="1:26" ht="70.25" customHeight="1">
       <c r="A43" s="14" t="s">
         <v>45</v>
       </c>
@@ -38513,7 +38523,7 @@
         <v>231</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="L43" s="14"/>
       <c r="M43" s="14" t="s">
@@ -38535,7 +38545,7 @@
       <c r="Y43" s="12"/>
       <c r="Z43" s="12"/>
     </row>
-    <row r="44" spans="1:26" ht="73.2" customHeight="1">
+    <row r="44" spans="1:26" ht="73.25" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>45</v>
       </c>
@@ -38563,7 +38573,7 @@
         <v>239</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>2498</v>
+        <v>2502</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4" t="s">
@@ -38585,7 +38595,7 @@
       <c r="Y44" s="12"/>
       <c r="Z44" s="12"/>
     </row>
-    <row r="45" spans="1:26" ht="409.6" hidden="1">
+    <row r="45" spans="1:26" ht="241" customHeight="1">
       <c r="A45" s="14">
         <v>1.8</v>
       </c>
@@ -38631,7 +38641,7 @@
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
     </row>
-    <row r="46" spans="1:26" ht="27.6" customHeight="1">
+    <row r="46" spans="1:26" ht="27.65" customHeight="1">
       <c r="A46" s="16"/>
       <c r="B46" s="16">
         <v>1.7</v>
@@ -38658,8 +38668,8 @@
       <c r="J46" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>2498</v>
+      <c r="K46" s="88" t="s">
+        <v>2502</v>
       </c>
       <c r="L46" s="16" t="s">
         <v>254</v>
@@ -38667,7 +38677,7 @@
       <c r="M46" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="N46" s="88"/>
+      <c r="N46" s="89"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
       <c r="R46" s="12"/>
@@ -38680,7 +38690,7 @@
       <c r="Y46" s="12"/>
       <c r="Z46" s="12"/>
     </row>
-    <row r="47" spans="1:26" ht="24" hidden="1" customHeight="1">
+    <row r="47" spans="1:26" ht="24" customHeight="1">
       <c r="A47" s="4">
         <v>1.8</v>
       </c>
@@ -38707,7 +38717,7 @@
       <c r="J47" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="K47" s="87" t="s">
+      <c r="K47" s="88" t="s">
         <v>73</v>
       </c>
       <c r="L47" s="4" t="s">
@@ -38757,8 +38767,8 @@
       <c r="J48" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>2498</v>
+      <c r="K48" s="81" t="s">
+        <v>2502</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>261</v>
@@ -38780,7 +38790,7 @@
       <c r="Y48" s="12"/>
       <c r="Z48" s="12"/>
     </row>
-    <row r="49" spans="1:26" ht="27" hidden="1" customHeight="1">
+    <row r="49" spans="1:26" ht="27" customHeight="1">
       <c r="A49" s="4"/>
       <c r="B49" s="4">
         <v>1.7</v>
@@ -38830,7 +38840,7 @@
       <c r="Y49" s="12"/>
       <c r="Z49" s="12"/>
     </row>
-    <row r="50" spans="1:26" ht="23.4" hidden="1" customHeight="1">
+    <row r="50" spans="1:26" ht="23.4" customHeight="1">
       <c r="A50" s="14">
         <v>1.8</v>
       </c>
@@ -38882,7 +38892,7 @@
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
     </row>
-    <row r="51" spans="1:26" ht="25.95" hidden="1" customHeight="1">
+    <row r="51" spans="1:26" ht="26" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4">
         <v>1.5</v>
@@ -38922,7 +38932,7 @@
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
     </row>
-    <row r="52" spans="1:26" ht="27" hidden="1" customHeight="1">
+    <row r="52" spans="1:26" ht="27" customHeight="1">
       <c r="A52" s="4">
         <v>1.6</v>
       </c>
@@ -38964,7 +38974,7 @@
       <c r="Y52" s="12"/>
       <c r="Z52" s="12"/>
     </row>
-    <row r="53" spans="1:26" ht="21.6" hidden="1" customHeight="1">
+    <row r="53" spans="1:26" ht="21.65" customHeight="1">
       <c r="A53" s="4">
         <v>1.8</v>
       </c>
@@ -39010,7 +39020,7 @@
       <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
     </row>
-    <row r="54" spans="1:26" ht="75.75" hidden="1" customHeight="1">
+    <row r="54" spans="1:26" ht="75.75" customHeight="1">
       <c r="A54" s="4">
         <v>1.8</v>
       </c>
@@ -39054,7 +39064,7 @@
       <c r="Y54" s="12"/>
       <c r="Z54" s="12"/>
     </row>
-    <row r="55" spans="1:26" ht="65.25" hidden="1" customHeight="1">
+    <row r="55" spans="1:26" ht="65.25" customHeight="1">
       <c r="A55" s="18"/>
       <c r="B55" s="18">
         <v>1.7</v>
@@ -39081,8 +39091,8 @@
       <c r="J55" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="K55" s="4" t="s">
-        <v>2497</v>
+      <c r="K55" s="81" t="s">
+        <v>73</v>
       </c>
       <c r="L55" s="18"/>
       <c r="M55" s="4"/>
@@ -39102,7 +39112,7 @@
       <c r="Y55" s="12"/>
       <c r="Z55" s="12"/>
     </row>
-    <row r="56" spans="1:26" ht="40.950000000000003" hidden="1" customHeight="1">
+    <row r="56" spans="1:26" ht="41" customHeight="1">
       <c r="A56" s="4">
         <v>1.8</v>
       </c>
@@ -39126,7 +39136,7 @@
       <c r="J56" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="K56" s="81" t="s">
         <v>73</v>
       </c>
       <c r="L56" s="4"/>
@@ -39147,7 +39157,7 @@
       <c r="Y56" s="12"/>
       <c r="Z56" s="12"/>
     </row>
-    <row r="57" spans="1:26" ht="70.2" hidden="1" customHeight="1">
+    <row r="57" spans="1:26" ht="70.25" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4">
         <v>1.7</v>
@@ -39164,9 +39174,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="82" t="s">
-        <v>2486</v>
-      </c>
+      <c r="K57" s="82"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -39183,7 +39191,7 @@
       <c r="Y57" s="12"/>
       <c r="Z57" s="12"/>
     </row>
-    <row r="58" spans="1:26" ht="70.2" hidden="1" customHeight="1">
+    <row r="58" spans="1:26" ht="70.25" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4">
         <v>1.7</v>
@@ -39210,13 +39218,15 @@
       <c r="J58" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="K58" s="82" t="s">
-        <v>2486</v>
+      <c r="K58" s="84" t="s">
+        <v>2503</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
-      <c r="O58" s="12"/>
+      <c r="O58" s="81" t="s">
+        <v>2499</v>
+      </c>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>
       <c r="R58" s="12"/>
@@ -39229,7 +39239,7 @@
       <c r="Y58" s="12"/>
       <c r="Z58" s="12"/>
     </row>
-    <row r="59" spans="1:26" ht="70.2" hidden="1" customHeight="1">
+    <row r="59" spans="1:26" ht="70.25" customHeight="1">
       <c r="A59" s="18">
         <v>1.8</v>
       </c>
@@ -39256,13 +39266,15 @@
       <c r="J59" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="K59" s="82" t="s">
-        <v>2486</v>
+      <c r="K59" s="84" t="s">
+        <v>2503</v>
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
-      <c r="O59" s="12"/>
+      <c r="O59" s="81" t="s">
+        <v>2499</v>
+      </c>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
       <c r="R59" s="12"/>
@@ -39275,7 +39287,7 @@
       <c r="Y59" s="12"/>
       <c r="Z59" s="12"/>
     </row>
-    <row r="60" spans="1:26" ht="70.2" hidden="1" customHeight="1">
+    <row r="60" spans="1:26" ht="70.25" customHeight="1">
       <c r="A60" s="4">
         <v>1.8</v>
       </c>
@@ -39292,9 +39304,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="82" t="s">
-        <v>2486</v>
-      </c>
+      <c r="K60" s="82"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
@@ -39311,7 +39321,7 @@
       <c r="Y60" s="12"/>
       <c r="Z60" s="12"/>
     </row>
-    <row r="61" spans="1:26" ht="70.2" hidden="1" customHeight="1">
+    <row r="61" spans="1:26" ht="70.25" customHeight="1">
       <c r="A61" s="14"/>
       <c r="B61" s="14">
         <v>1.7</v>
@@ -39338,13 +39348,15 @@
       <c r="J61" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="K61" s="82" t="s">
-        <v>2486</v>
+      <c r="K61" s="84" t="s">
+        <v>2503</v>
       </c>
       <c r="L61" s="14"/>
       <c r="M61" s="14"/>
       <c r="N61" s="14"/>
-      <c r="O61" s="12"/>
+      <c r="O61" s="81" t="s">
+        <v>2500</v>
+      </c>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
       <c r="R61" s="12"/>
@@ -39357,7 +39369,7 @@
       <c r="Y61" s="12"/>
       <c r="Z61" s="12"/>
     </row>
-    <row r="62" spans="1:26" ht="70.2" hidden="1" customHeight="1">
+    <row r="62" spans="1:26" ht="70.25" customHeight="1">
       <c r="A62" s="16">
         <v>1.8</v>
       </c>
@@ -39384,13 +39396,15 @@
       <c r="J62" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="K62" s="82" t="s">
-        <v>2486</v>
+      <c r="K62" s="84" t="s">
+        <v>2503</v>
       </c>
       <c r="L62" s="16"/>
       <c r="M62" s="14"/>
       <c r="N62" s="14"/>
-      <c r="O62" s="12"/>
+      <c r="O62" s="81" t="s">
+        <v>2500</v>
+      </c>
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
       <c r="R62" s="12"/>
@@ -39403,22 +39417,16 @@
       <c r="Y62" s="12"/>
       <c r="Z62" s="12"/>
     </row>
-    <row r="63" spans="1:26" ht="70.2" customHeight="1"/>
-    <row r="64" spans="1:26" ht="70.2" customHeight="1"/>
-    <row r="65" spans="1:4" ht="70.2" customHeight="1">
-      <c r="A65" s="91"/>
-      <c r="B65" s="91"/>
-      <c r="C65" s="91"/>
-      <c r="D65" s="91"/>
+    <row r="63" spans="1:26" ht="70.25" customHeight="1"/>
+    <row r="64" spans="1:26" ht="70.25" customHeight="1"/>
+    <row r="65" spans="1:4" ht="70.25" customHeight="1">
+      <c r="A65" s="92"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z62" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="OP: Looks ok"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Z62" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="A65:D65"/>
@@ -39437,15 +39445,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.54296875" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" customWidth="1"/>
     <col min="11" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -55687,17 +55695,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="8.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.88671875" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" customWidth="1"/>
-    <col min="5" max="5" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.44140625" customWidth="1"/>
-    <col min="7" max="28" width="7.5546875" customWidth="1"/>
+    <col min="1" max="2" width="8.36328125" customWidth="1"/>
+    <col min="3" max="3" width="57.90625" customWidth="1"/>
+    <col min="4" max="4" width="29.54296875" customWidth="1"/>
+    <col min="5" max="5" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.453125" customWidth="1"/>
+    <col min="7" max="28" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="39.6">
+    <row r="1" spans="1:28" ht="39">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -56581,15 +56589,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="40.109375" customWidth="1"/>
+    <col min="1" max="1" width="40.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1">
@@ -56597,7 +56605,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.2">
+    <row r="2" spans="1:1" ht="13">
       <c r="A2" s="54" t="s">
         <v>2337</v>
       </c>
@@ -56608,18 +56616,23 @@
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1">
-      <c r="A6" s="92" t="s">
-        <v>2496</v>
+      <c r="A6" t="s">
+        <v>2339</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>2339</v>
+      <c r="A7" t="s">
+        <v>2340</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>2494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15" customHeight="1">
+      <c r="A9" t="s">
+        <v>2501</v>
       </c>
     </row>
   </sheetData>
@@ -56638,52 +56651,52 @@
       <selection activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="53" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="2"/>
       <c r="E2" s="55" t="s">
-        <v>2342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="56" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="53" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="E5" s="57" t="s">
         <v>82</v>
@@ -56691,73 +56704,73 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="58" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>2352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="E7" s="59" t="s">
-        <v>2353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="E9" s="60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="12.5">
       <c r="A10" s="2" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>2359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.5">
       <c r="A11" s="15" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>2362</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.5">
+      <c r="A12" s="17" t="s">
         <v>2361</v>
       </c>
-      <c r="E11" s="62" t="s">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="17" t="s">
-        <v>2360</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.5">
       <c r="E13" s="64" t="s">
         <v>112</v>
       </c>
@@ -56773,13 +56786,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="95.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" customWidth="1"/>
-    <col min="3" max="3" width="53.5546875" customWidth="1"/>
+    <col min="1" max="1" width="95.36328125" customWidth="1"/>
+    <col min="2" max="2" width="31.90625" customWidth="1"/>
+    <col min="3" max="3" width="53.54296875" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="26" width="7.5546875" customWidth="1"/>
+    <col min="5" max="26" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1">
@@ -56790,10 +56803,10 @@
         <v>2293</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="2"/>
@@ -56823,28 +56836,28 @@
         <v>1655</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="C2" s="79" t="s">
         <v>1651</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1">
       <c r="A3" s="78" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="C3" s="79" t="s">
         <v>2077</v>
       </c>
       <c r="D3" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E3" s="79"/>
     </row>
@@ -56853,13 +56866,13 @@
         <v>2224</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="C4" s="79" t="s">
         <v>2077</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E4" s="79"/>
     </row>
@@ -56868,13 +56881,13 @@
         <v>2251</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="C5" s="79" t="s">
         <v>2236</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E5" s="79"/>
     </row>
@@ -56883,13 +56896,13 @@
         <v>960</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="C6" s="79" t="s">
         <v>958</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E6" s="79"/>
     </row>
@@ -56898,13 +56911,13 @@
         <v>608</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="C7" s="79" t="s">
         <v>604</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E7" s="79"/>
     </row>
@@ -56913,13 +56926,13 @@
         <v>1698</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="C8" s="79" t="s">
         <v>1703</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E8" s="79"/>
     </row>
@@ -56928,13 +56941,13 @@
         <v>2142</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="C9" s="79" t="s">
         <v>2109</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E9" s="79"/>
     </row>
@@ -56943,13 +56956,13 @@
         <v>1820</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="C10" s="79" t="s">
         <v>797</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E10" s="79"/>
     </row>
@@ -56958,43 +56971,43 @@
         <v>459</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="C11" s="79" t="s">
         <v>456</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E11" s="79"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1">
       <c r="A12" s="78" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B12" s="78" t="s">
         <v>2374</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>2373</v>
       </c>
       <c r="C12" s="79" t="s">
         <v>1062</v>
       </c>
       <c r="D12" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E12" s="79"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1">
       <c r="A13" s="78" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="C13" s="79" t="s">
         <v>1605</v>
       </c>
       <c r="D13" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E13" s="79"/>
     </row>
@@ -57009,13 +57022,13 @@
         <v>1311</v>
       </c>
       <c r="D14" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E14" s="79"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1">
       <c r="A15" s="78" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>1312</v>
@@ -57024,7 +57037,7 @@
         <v>1311</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E15" s="79"/>
     </row>
@@ -57039,7 +57052,7 @@
         <v>1311</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E16" s="79"/>
     </row>
@@ -57054,7 +57067,7 @@
         <v>1946</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E17" s="79"/>
     </row>
@@ -57063,13 +57076,13 @@
         <v>1392</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="C18" s="79" t="s">
         <v>1311</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E18" s="79"/>
     </row>
@@ -57078,28 +57091,28 @@
         <v>2011</v>
       </c>
       <c r="B19" s="78" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="C19" s="79" t="s">
         <v>1946</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E19" s="79"/>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1">
       <c r="A20" s="78" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="B20" s="78" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="C20" s="79" t="s">
         <v>2077</v>
       </c>
       <c r="D20" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E20" s="79"/>
     </row>
@@ -57108,13 +57121,13 @@
         <v>2216</v>
       </c>
       <c r="B21" s="78" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="C21" s="79" t="s">
         <v>2077</v>
       </c>
       <c r="D21" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E21" s="79"/>
     </row>
@@ -57123,28 +57136,28 @@
         <v>427</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="C22" s="79" t="s">
         <v>413</v>
       </c>
       <c r="D22" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E22" s="79"/>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1">
       <c r="A23" s="78" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B23" s="78" t="s">
         <v>2381</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>2380</v>
       </c>
       <c r="C23" s="79" t="s">
         <v>421</v>
       </c>
       <c r="D23" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E23" s="79"/>
     </row>
@@ -57153,13 +57166,13 @@
         <v>2025</v>
       </c>
       <c r="B24" s="78" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="C24" s="79" t="s">
         <v>2043</v>
       </c>
       <c r="D24" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E24" s="79"/>
     </row>
@@ -57168,13 +57181,13 @@
         <v>2127</v>
       </c>
       <c r="B25" s="78" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="C25" s="79" t="s">
         <v>2079</v>
       </c>
       <c r="D25" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E25" s="79"/>
     </row>
@@ -57183,13 +57196,13 @@
         <v>312</v>
       </c>
       <c r="B26" s="78" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="C26" s="79" t="s">
         <v>309</v>
       </c>
       <c r="D26" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E26" s="79"/>
     </row>
@@ -57198,13 +57211,13 @@
         <v>1370</v>
       </c>
       <c r="B27" s="78" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="C27" s="79" t="s">
         <v>1367</v>
       </c>
       <c r="D27" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E27" s="79"/>
     </row>
@@ -57213,13 +57226,13 @@
         <v>1993</v>
       </c>
       <c r="B28" s="78" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="C28" s="79" t="s">
         <v>1981</v>
       </c>
       <c r="D28" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E28" s="79"/>
     </row>
@@ -57228,13 +57241,13 @@
         <v>1259</v>
       </c>
       <c r="B29" s="78" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="C29" s="79" t="s">
         <v>1275</v>
       </c>
       <c r="D29" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E29" s="79"/>
     </row>
@@ -57243,13 +57256,13 @@
         <v>2120</v>
       </c>
       <c r="B30" s="78" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="C30" s="79" t="s">
         <v>2079</v>
       </c>
       <c r="D30" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E30" s="79"/>
     </row>
@@ -57264,7 +57277,7 @@
         <v>522</v>
       </c>
       <c r="D31" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E31" s="79"/>
     </row>
@@ -57279,7 +57292,7 @@
         <v>1490</v>
       </c>
       <c r="D32" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E32" s="79"/>
     </row>
@@ -57294,7 +57307,7 @@
         <v>604</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E33" s="79"/>
     </row>
@@ -57309,7 +57322,7 @@
         <v>544</v>
       </c>
       <c r="D34" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E34" s="79"/>
     </row>
@@ -57318,13 +57331,13 @@
         <v>1078</v>
       </c>
       <c r="B35" s="78" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="C35" s="79" t="s">
         <v>1111</v>
       </c>
       <c r="D35" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E35" s="79"/>
     </row>
@@ -57333,43 +57346,43 @@
         <v>1038</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="C36" s="79" t="s">
         <v>1032</v>
       </c>
       <c r="D36" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E36" s="79"/>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1">
       <c r="A37" s="78" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="B37" s="78" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="C37" s="79" t="s">
         <v>1191</v>
       </c>
       <c r="D37" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E37" s="79"/>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1">
       <c r="A38" s="78" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="B38" s="78" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="C38" s="79" t="s">
         <v>1175</v>
       </c>
       <c r="D38" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E38" s="79"/>
     </row>
@@ -57384,7 +57397,7 @@
         <v>663</v>
       </c>
       <c r="D39" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E39" s="79"/>
     </row>
@@ -57393,13 +57406,13 @@
         <v>1071</v>
       </c>
       <c r="B40" s="78" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="C40" s="79" t="s">
         <v>1108</v>
       </c>
       <c r="D40" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E40" s="79"/>
     </row>
@@ -57408,13 +57421,13 @@
         <v>1120</v>
       </c>
       <c r="B41" s="78" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="C41" s="79" t="s">
         <v>1114</v>
       </c>
       <c r="D41" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E41" s="79"/>
     </row>
@@ -57429,7 +57442,7 @@
         <v>1086</v>
       </c>
       <c r="D42" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E42" s="79"/>
     </row>
@@ -57444,7 +57457,7 @@
         <v>1540</v>
       </c>
       <c r="D43" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E43" s="79"/>
     </row>
@@ -57459,7 +57472,7 @@
         <v>883</v>
       </c>
       <c r="D44" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E44" s="79"/>
     </row>
@@ -57474,7 +57487,7 @@
         <v>2079</v>
       </c>
       <c r="D45" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E45" s="79"/>
     </row>
@@ -57489,7 +57502,7 @@
         <v>1893</v>
       </c>
       <c r="D46" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E46" s="79"/>
     </row>
@@ -57504,13 +57517,13 @@
         <v>2100</v>
       </c>
       <c r="D47" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E47" s="79"/>
     </row>
     <row r="48" spans="1:5" ht="12.75" customHeight="1">
       <c r="A48" s="78" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="B48" s="78" t="s">
         <v>2309</v>
@@ -57519,13 +57532,13 @@
         <v>1062</v>
       </c>
       <c r="D48" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E48" s="79"/>
     </row>
     <row r="49" spans="1:5" ht="12.75" customHeight="1">
       <c r="A49" s="78" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="B49" s="78" t="s">
         <v>2309</v>
@@ -57534,13 +57547,13 @@
         <v>1605</v>
       </c>
       <c r="D49" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E49" s="79"/>
     </row>
     <row r="50" spans="1:5" ht="12.75" customHeight="1">
       <c r="A50" s="78" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="B50" s="78" t="s">
         <v>2309</v>
@@ -57549,13 +57562,13 @@
         <v>1191</v>
       </c>
       <c r="D50" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E50" s="79"/>
     </row>
     <row r="51" spans="1:5" ht="12.75" customHeight="1">
       <c r="A51" s="78" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="B51" s="78" t="s">
         <v>2309</v>
@@ -57564,13 +57577,13 @@
         <v>1175</v>
       </c>
       <c r="D51" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E51" s="79"/>
     </row>
     <row r="52" spans="1:5" ht="12.75" customHeight="1">
       <c r="A52" s="78" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="B52" s="78" t="s">
         <v>2309</v>
@@ -57579,13 +57592,13 @@
         <v>1844</v>
       </c>
       <c r="D52" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E52" s="79"/>
     </row>
     <row r="53" spans="1:5" ht="12.75" customHeight="1">
       <c r="A53" s="78" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="B53" s="78" t="s">
         <v>2309</v>
@@ -57594,13 +57607,13 @@
         <v>1062</v>
       </c>
       <c r="D53" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E53" s="79"/>
     </row>
     <row r="54" spans="1:5" ht="12.75" customHeight="1">
       <c r="A54" s="78" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="B54" s="78" t="s">
         <v>2309</v>
@@ -57609,13 +57622,13 @@
         <v>1853</v>
       </c>
       <c r="D54" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E54" s="79"/>
     </row>
     <row r="55" spans="1:5" ht="12.75" customHeight="1">
       <c r="A55" s="78" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="B55" s="78" t="s">
         <v>2309</v>
@@ -57624,13 +57637,13 @@
         <v>1853</v>
       </c>
       <c r="D55" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E55" s="79"/>
     </row>
     <row r="56" spans="1:5" ht="12.75" customHeight="1">
       <c r="A56" s="78" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B56" s="78" t="s">
         <v>2309</v>
@@ -57639,13 +57652,13 @@
         <v>1062</v>
       </c>
       <c r="D56" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E56" s="79"/>
     </row>
     <row r="57" spans="1:5" ht="12.75" customHeight="1">
       <c r="A57" s="78" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="B57" s="78" t="s">
         <v>2309</v>
@@ -57654,7 +57667,7 @@
         <v>1155</v>
       </c>
       <c r="D57" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E57" s="79"/>
     </row>
@@ -57669,7 +57682,7 @@
         <v>1086</v>
       </c>
       <c r="D58" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E58" s="79"/>
     </row>
@@ -57684,7 +57697,7 @@
         <v>786</v>
       </c>
       <c r="D59" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E59" s="79"/>
     </row>
@@ -57699,7 +57712,7 @@
         <v>772</v>
       </c>
       <c r="D60" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E60" s="79"/>
     </row>
@@ -57714,7 +57727,7 @@
         <v>1883</v>
       </c>
       <c r="D61" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E61" s="79"/>
     </row>
@@ -57729,7 +57742,7 @@
         <v>760</v>
       </c>
       <c r="D62" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E62" s="79"/>
     </row>
@@ -57744,13 +57757,13 @@
         <v>309</v>
       </c>
       <c r="D63" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E63" s="79"/>
     </row>
     <row r="64" spans="1:5" ht="12.75" customHeight="1">
       <c r="A64" s="78" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="B64" s="78" t="s">
         <v>2309</v>
@@ -57759,13 +57772,13 @@
         <v>475</v>
       </c>
       <c r="D64" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E64" s="79"/>
     </row>
     <row r="65" spans="1:5" ht="12.75" customHeight="1">
       <c r="A65" s="78" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="B65" s="78" t="s">
         <v>2309</v>
@@ -57774,13 +57787,13 @@
         <v>2017</v>
       </c>
       <c r="D65" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E65" s="79"/>
     </row>
     <row r="66" spans="1:5" ht="12.75" customHeight="1">
       <c r="A66" s="78" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="B66" s="78" t="s">
         <v>2309</v>
@@ -57789,7 +57802,7 @@
         <v>800</v>
       </c>
       <c r="D66" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E66" s="79"/>
     </row>
@@ -57804,7 +57817,7 @@
         <v>800</v>
       </c>
       <c r="D67" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E67" s="79"/>
     </row>
@@ -57819,13 +57832,13 @@
         <v>499</v>
       </c>
       <c r="D68" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E68" s="79"/>
     </row>
     <row r="69" spans="1:5" ht="12.75" customHeight="1">
       <c r="A69" s="78" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="B69" s="78" t="s">
         <v>2309</v>
@@ -57834,7 +57847,7 @@
         <v>309</v>
       </c>
       <c r="D69" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E69" s="79"/>
     </row>
@@ -57849,7 +57862,7 @@
         <v>1746</v>
       </c>
       <c r="D70" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E70" s="79"/>
     </row>
@@ -57864,7 +57877,7 @@
         <v>2046</v>
       </c>
       <c r="D71" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E71" s="79"/>
     </row>
@@ -57873,28 +57886,28 @@
         <v>913</v>
       </c>
       <c r="B72" s="78" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="C72" s="79" t="s">
         <v>909</v>
       </c>
       <c r="D72" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E72" s="79"/>
     </row>
     <row r="73" spans="1:5" ht="12.75" customHeight="1">
       <c r="A73" s="78" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="B73" s="78" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="C73" s="79" t="s">
         <v>2077</v>
       </c>
       <c r="D73" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E73" s="79"/>
     </row>
@@ -57903,13 +57916,13 @@
         <v>2208</v>
       </c>
       <c r="B74" s="78" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="C74" s="79" t="s">
         <v>2077</v>
       </c>
       <c r="D74" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E74" s="79"/>
     </row>
@@ -57918,13 +57931,13 @@
         <v>953</v>
       </c>
       <c r="B75" s="78" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="C75" s="79" t="s">
         <v>958</v>
       </c>
       <c r="D75" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E75" s="79"/>
     </row>
@@ -57933,13 +57946,13 @@
         <v>637</v>
       </c>
       <c r="B76" s="78" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="C76" s="79" t="s">
         <v>604</v>
       </c>
       <c r="D76" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E76" s="79"/>
     </row>
@@ -57954,7 +57967,7 @@
         <v>786</v>
       </c>
       <c r="D77" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E77" s="79"/>
     </row>
@@ -57969,13 +57982,13 @@
         <v>1618</v>
       </c>
       <c r="D78" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E78" s="79"/>
     </row>
     <row r="79" spans="1:5" ht="12.75" customHeight="1">
       <c r="A79" s="78" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="B79" s="78" t="s">
         <v>787</v>
@@ -57984,13 +57997,13 @@
         <v>1191</v>
       </c>
       <c r="D79" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E79" s="79"/>
     </row>
     <row r="80" spans="1:5" ht="12.75" customHeight="1">
       <c r="A80" s="78" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="B80" s="78" t="s">
         <v>787</v>
@@ -57999,7 +58012,7 @@
         <v>1175</v>
       </c>
       <c r="D80" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E80" s="79"/>
     </row>
@@ -58014,13 +58027,13 @@
         <v>1844</v>
       </c>
       <c r="D81" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E81" s="79"/>
     </row>
     <row r="82" spans="1:5" ht="12.75" customHeight="1">
       <c r="A82" s="78" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="B82" s="78" t="s">
         <v>787</v>
@@ -58029,7 +58042,7 @@
         <v>1155</v>
       </c>
       <c r="D82" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E82" s="79"/>
     </row>
@@ -58044,7 +58057,7 @@
         <v>309</v>
       </c>
       <c r="D83" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E83" s="79"/>
     </row>
@@ -58059,7 +58072,7 @@
         <v>1893</v>
       </c>
       <c r="D84" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E84" s="79"/>
     </row>
@@ -58074,13 +58087,13 @@
         <v>772</v>
       </c>
       <c r="D85" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E85" s="79"/>
     </row>
     <row r="86" spans="1:5" ht="12.75" customHeight="1">
       <c r="A86" s="78" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="B86" s="78" t="s">
         <v>2311</v>
@@ -58089,7 +58102,7 @@
         <v>1146</v>
       </c>
       <c r="D86" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E86" s="79"/>
     </row>
@@ -58104,22 +58117,22 @@
         <v>1893</v>
       </c>
       <c r="D87" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E87" s="79"/>
     </row>
     <row r="88" spans="1:5" ht="12.75" customHeight="1">
       <c r="A88" s="78" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="B88" s="78" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="C88" s="79" t="s">
         <v>1883</v>
       </c>
       <c r="D88" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E88" s="79"/>
     </row>
@@ -58134,52 +58147,52 @@
         <v>760</v>
       </c>
       <c r="D89" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E89" s="79"/>
     </row>
     <row r="90" spans="1:5" ht="12.75" customHeight="1">
       <c r="A90" s="78" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="B90" s="78" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="C90" s="79" t="s">
         <v>1921</v>
       </c>
       <c r="D90" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E90" s="79"/>
     </row>
     <row r="91" spans="1:5" ht="12.75" customHeight="1">
       <c r="A91" s="78" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B91" s="78" t="s">
         <v>2421</v>
-      </c>
-      <c r="B91" s="78" t="s">
-        <v>2420</v>
       </c>
       <c r="C91" s="79" t="s">
         <v>1921</v>
       </c>
       <c r="D91" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E91" s="79"/>
     </row>
     <row r="92" spans="1:5" ht="12.75" customHeight="1">
       <c r="A92" s="78" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="B92" s="78" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="C92" s="79" t="s">
         <v>1844</v>
       </c>
       <c r="D92" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E92" s="79"/>
     </row>
@@ -58194,7 +58207,7 @@
         <v>860</v>
       </c>
       <c r="D93" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E93" s="79"/>
     </row>
@@ -58209,7 +58222,7 @@
         <v>1915</v>
       </c>
       <c r="D94" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E94" s="79"/>
     </row>
@@ -58224,7 +58237,7 @@
         <v>554</v>
       </c>
       <c r="D95" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E95" s="79"/>
     </row>
@@ -58239,13 +58252,13 @@
         <v>563</v>
       </c>
       <c r="D96" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E96" s="79"/>
     </row>
     <row r="97" spans="1:5" ht="12.75" customHeight="1">
       <c r="A97" s="78" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="B97" s="78" t="s">
         <v>2315</v>
@@ -58254,7 +58267,7 @@
         <v>1146</v>
       </c>
       <c r="D97" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E97" s="79"/>
     </row>
@@ -58269,7 +58282,7 @@
         <v>1933</v>
       </c>
       <c r="D98" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E98" s="79"/>
     </row>
@@ -58284,7 +58297,7 @@
         <v>1921</v>
       </c>
       <c r="D99" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E99" s="79"/>
     </row>
@@ -58293,13 +58306,13 @@
         <v>1285</v>
       </c>
       <c r="B100" s="78" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="C100" s="79" t="s">
         <v>1308</v>
       </c>
       <c r="D100" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E100" s="79"/>
     </row>
@@ -58308,13 +58321,13 @@
         <v>1554</v>
       </c>
       <c r="B101" s="78" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="C101" s="79" t="s">
         <v>1550</v>
       </c>
       <c r="D101" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E101" s="79"/>
     </row>
@@ -58329,7 +58342,7 @@
         <v>395</v>
       </c>
       <c r="D102" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E102" s="79"/>
     </row>
@@ -58344,13 +58357,13 @@
         <v>2017</v>
       </c>
       <c r="D103" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E103" s="79"/>
     </row>
     <row r="104" spans="1:5" ht="12.75" customHeight="1">
       <c r="A104" s="78" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="B104" s="78" t="s">
         <v>313</v>
@@ -58359,13 +58372,13 @@
         <v>475</v>
       </c>
       <c r="D104" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E104" s="79"/>
     </row>
     <row r="105" spans="1:5" ht="12.75" customHeight="1">
       <c r="A105" s="78" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="B105" s="78" t="s">
         <v>313</v>
@@ -58374,7 +58387,7 @@
         <v>2017</v>
       </c>
       <c r="D105" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E105" s="79"/>
     </row>
@@ -58383,13 +58396,13 @@
         <v>1683</v>
       </c>
       <c r="B106" s="78" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="C106" s="79" t="s">
         <v>1679</v>
       </c>
       <c r="D106" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E106" s="79"/>
     </row>
@@ -58404,7 +58417,7 @@
         <v>2079</v>
       </c>
       <c r="D107" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E107" s="79"/>
     </row>
@@ -58419,13 +58432,13 @@
         <v>2236</v>
       </c>
       <c r="D108" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E108" s="79"/>
     </row>
     <row r="109" spans="1:5" ht="12.75" customHeight="1">
       <c r="A109" s="78" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="B109" s="78" t="s">
         <v>422</v>
@@ -58434,7 +58447,7 @@
         <v>2077</v>
       </c>
       <c r="D109" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E109" s="79"/>
     </row>
@@ -58449,13 +58462,13 @@
         <v>2079</v>
       </c>
       <c r="D110" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E110" s="79"/>
     </row>
     <row r="111" spans="1:5" ht="12.75" customHeight="1">
       <c r="A111" s="78" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="B111" s="78" t="s">
         <v>422</v>
@@ -58464,13 +58477,13 @@
         <v>1062</v>
       </c>
       <c r="D111" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E111" s="79"/>
     </row>
     <row r="112" spans="1:5" ht="12.75" customHeight="1">
       <c r="A112" s="78" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="B112" s="78" t="s">
         <v>422</v>
@@ -58479,13 +58492,13 @@
         <v>1605</v>
       </c>
       <c r="D112" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E112" s="79"/>
     </row>
     <row r="113" spans="1:5" ht="12.75" customHeight="1">
       <c r="A113" s="78" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="B113" s="78" t="s">
         <v>422</v>
@@ -58494,13 +58507,13 @@
         <v>2077</v>
       </c>
       <c r="D113" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E113" s="79"/>
     </row>
     <row r="114" spans="1:5" ht="12.75" customHeight="1">
       <c r="A114" s="78" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="B114" s="78" t="s">
         <v>422</v>
@@ -58509,13 +58522,13 @@
         <v>1191</v>
       </c>
       <c r="D114" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E114" s="79"/>
     </row>
     <row r="115" spans="1:5" ht="12.75" customHeight="1">
       <c r="A115" s="78" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="B115" s="78" t="s">
         <v>422</v>
@@ -58524,13 +58537,13 @@
         <v>1175</v>
       </c>
       <c r="D115" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E115" s="79"/>
     </row>
     <row r="116" spans="1:5" ht="12.75" customHeight="1">
       <c r="A116" s="78" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="B116" s="78" t="s">
         <v>422</v>
@@ -58539,13 +58552,13 @@
         <v>2077</v>
       </c>
       <c r="D116" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E116" s="79"/>
     </row>
     <row r="117" spans="1:5" ht="12.75" customHeight="1">
       <c r="A117" s="78" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="B117" s="78" t="s">
         <v>422</v>
@@ -58554,13 +58567,13 @@
         <v>1844</v>
       </c>
       <c r="D117" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E117" s="79"/>
     </row>
     <row r="118" spans="1:5" ht="12.75" customHeight="1">
       <c r="A118" s="78" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="B118" s="78" t="s">
         <v>422</v>
@@ -58569,13 +58582,13 @@
         <v>1062</v>
       </c>
       <c r="D118" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E118" s="79"/>
     </row>
     <row r="119" spans="1:5" ht="12.75" customHeight="1">
       <c r="A119" s="78" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="B119" s="78" t="s">
         <v>422</v>
@@ -58584,13 +58597,13 @@
         <v>1844</v>
       </c>
       <c r="D119" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E119" s="79"/>
     </row>
     <row r="120" spans="1:5" ht="12.75" customHeight="1">
       <c r="A120" s="78" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="B120" s="78" t="s">
         <v>422</v>
@@ -58599,13 +58612,13 @@
         <v>1853</v>
       </c>
       <c r="D120" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E120" s="79"/>
     </row>
     <row r="121" spans="1:5" ht="12.75" customHeight="1">
       <c r="A121" s="78" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="B121" s="78" t="s">
         <v>422</v>
@@ -58614,13 +58627,13 @@
         <v>1062</v>
       </c>
       <c r="D121" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E121" s="79"/>
     </row>
     <row r="122" spans="1:5" ht="12.75" customHeight="1">
       <c r="A122" s="78" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="B122" s="78" t="s">
         <v>422</v>
@@ -58629,7 +58642,7 @@
         <v>1155</v>
       </c>
       <c r="D122" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E122" s="79"/>
     </row>
@@ -58638,13 +58651,13 @@
         <v>1440</v>
       </c>
       <c r="B123" s="78" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="C123" s="79" t="s">
         <v>1436</v>
       </c>
       <c r="D123" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E123" s="79"/>
     </row>
@@ -58653,28 +58666,28 @@
         <v>989</v>
       </c>
       <c r="B124" s="78" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="C124" s="79" t="s">
         <v>985</v>
       </c>
       <c r="D124" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E124" s="79"/>
     </row>
     <row r="125" spans="1:5" ht="12.75" customHeight="1">
       <c r="A125" s="78" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="B125" s="78" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="C125" s="79" t="s">
         <v>800</v>
       </c>
       <c r="D125" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E125" s="79"/>
     </row>
@@ -58683,13 +58696,13 @@
         <v>799</v>
       </c>
       <c r="B126" s="78" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="C126" s="79" t="s">
         <v>800</v>
       </c>
       <c r="D126" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E126" s="79"/>
     </row>
@@ -58704,13 +58717,13 @@
         <v>734</v>
       </c>
       <c r="D127" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E127" s="79"/>
     </row>
     <row r="128" spans="1:5" ht="12.75" customHeight="1">
       <c r="A128" s="78" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="B128" s="78" t="s">
         <v>510</v>
@@ -58719,13 +58732,13 @@
         <v>509</v>
       </c>
       <c r="D128" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E128" s="79"/>
     </row>
     <row r="129" spans="1:5" ht="12.75" customHeight="1">
       <c r="A129" s="78" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="B129" s="78" t="s">
         <v>510</v>
@@ -58734,13 +58747,13 @@
         <v>734</v>
       </c>
       <c r="D129" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E129" s="79"/>
     </row>
     <row r="130" spans="1:5" ht="12.75" customHeight="1">
       <c r="A130" s="78" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="B130" s="78" t="s">
         <v>510</v>
@@ -58749,7 +58762,7 @@
         <v>734</v>
       </c>
       <c r="D130" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E130" s="79"/>
     </row>
@@ -58764,13 +58777,13 @@
         <v>471</v>
       </c>
       <c r="D131" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E131" s="79"/>
     </row>
     <row r="132" spans="1:5" ht="12.75" customHeight="1">
       <c r="A132" s="78" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="B132" s="78" t="s">
         <v>510</v>
@@ -58779,7 +58792,7 @@
         <v>309</v>
       </c>
       <c r="D132" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E132" s="79"/>
     </row>
@@ -58788,13 +58801,13 @@
         <v>738</v>
       </c>
       <c r="B133" s="78" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="C133" s="79" t="s">
         <v>471</v>
       </c>
       <c r="D133" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E133" s="79"/>
     </row>
@@ -58803,13 +58816,13 @@
         <v>682</v>
       </c>
       <c r="B134" s="78" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="C134" s="79" t="s">
         <v>678</v>
       </c>
       <c r="D134" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E134" s="79"/>
     </row>
@@ -58818,13 +58831,13 @@
         <v>1503</v>
       </c>
       <c r="B135" s="78" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="C135" s="79" t="s">
         <v>1062</v>
       </c>
       <c r="D135" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E135" s="79"/>
     </row>
@@ -58833,28 +58846,28 @@
         <v>1754</v>
       </c>
       <c r="B136" s="78" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="C136" s="79" t="s">
         <v>1761</v>
       </c>
       <c r="D136" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E136" s="79"/>
     </row>
     <row r="137" spans="1:5" ht="12.75" customHeight="1">
       <c r="A137" s="78" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="B137" s="78" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="C137" s="79" t="s">
         <v>1062</v>
       </c>
       <c r="D137" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E137" s="79"/>
     </row>
@@ -58863,13 +58876,13 @@
         <v>707</v>
       </c>
       <c r="B138" s="78" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="C138" s="79" t="s">
         <v>1618</v>
       </c>
       <c r="D138" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E138" s="79"/>
     </row>
@@ -58878,13 +58891,13 @@
         <v>870</v>
       </c>
       <c r="B139" s="78" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="C139" s="79" t="s">
         <v>876</v>
       </c>
       <c r="D139" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E139" s="79"/>
     </row>
@@ -58893,13 +58906,13 @@
         <v>579</v>
       </c>
       <c r="B140" s="78" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="C140" s="79" t="s">
         <v>588</v>
       </c>
       <c r="D140" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E140" s="79"/>
     </row>
@@ -58908,13 +58921,13 @@
         <v>843</v>
       </c>
       <c r="B141" s="78" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="C141" s="79" t="s">
         <v>818</v>
       </c>
       <c r="D141" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E141" s="79"/>
     </row>
@@ -58923,58 +58936,58 @@
         <v>1860</v>
       </c>
       <c r="B142" s="78" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="C142" s="79" t="s">
         <v>1844</v>
       </c>
       <c r="D142" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E142" s="79"/>
     </row>
     <row r="143" spans="1:5" ht="12.75" customHeight="1">
       <c r="A143" s="78" t="s">
+        <v>2462</v>
+      </c>
+      <c r="B143" s="78" t="s">
         <v>2461</v>
-      </c>
-      <c r="B143" s="78" t="s">
-        <v>2460</v>
       </c>
       <c r="C143" s="79" t="s">
         <v>1844</v>
       </c>
       <c r="D143" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E143" s="79"/>
     </row>
     <row r="144" spans="1:5" ht="12.75" customHeight="1">
       <c r="A144" s="78" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="B144" s="78" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="C144" s="79" t="s">
         <v>1853</v>
       </c>
       <c r="D144" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E144" s="79"/>
     </row>
     <row r="145" spans="1:5" ht="12.75" customHeight="1">
       <c r="A145" s="78" t="s">
+        <v>2465</v>
+      </c>
+      <c r="B145" s="78" t="s">
         <v>2464</v>
-      </c>
-      <c r="B145" s="78" t="s">
-        <v>2463</v>
       </c>
       <c r="C145" s="79" t="s">
         <v>1062</v>
       </c>
       <c r="D145" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E145" s="79"/>
     </row>
@@ -58983,13 +58996,13 @@
         <v>1843</v>
       </c>
       <c r="B146" s="78" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="C146" s="79" t="s">
         <v>1844</v>
       </c>
       <c r="D146" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E146" s="79"/>
     </row>
@@ -58998,13 +59011,13 @@
         <v>1510</v>
       </c>
       <c r="B147" s="78" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="C147" s="79" t="s">
         <v>1062</v>
       </c>
       <c r="D147" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E147" s="79"/>
     </row>
@@ -59013,13 +59026,13 @@
         <v>1216</v>
       </c>
       <c r="B148" s="78" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="C148" s="79" t="s">
         <v>1290</v>
       </c>
       <c r="D148" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E148" s="79"/>
     </row>
@@ -59028,13 +59041,13 @@
         <v>904</v>
       </c>
       <c r="B149" s="78" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="C149" s="79" t="s">
         <v>900</v>
       </c>
       <c r="D149" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E149" s="79"/>
     </row>
@@ -59043,13 +59056,13 @@
         <v>1007</v>
       </c>
       <c r="B150" s="78" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="C150" s="79" t="s">
         <v>985</v>
       </c>
       <c r="D150" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E150" s="79"/>
     </row>
@@ -59058,13 +59071,13 @@
         <v>1664</v>
       </c>
       <c r="B151" s="78" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="C151" s="79" t="s">
         <v>1062</v>
       </c>
       <c r="D151" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E151" s="79"/>
     </row>
@@ -59073,13 +59086,13 @@
         <v>932</v>
       </c>
       <c r="B152" s="78" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="C152" s="79" t="s">
         <v>944</v>
       </c>
       <c r="D152" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E152" s="79"/>
     </row>
@@ -59094,7 +59107,7 @@
         <v>1418</v>
       </c>
       <c r="D153" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E153" s="79"/>
     </row>
@@ -59109,22 +59122,22 @@
         <v>1032</v>
       </c>
       <c r="D154" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E154" s="79"/>
     </row>
     <row r="155" spans="1:5" ht="12.75" customHeight="1">
       <c r="A155" s="78" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="B155" s="78" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="C155" s="79" t="s">
         <v>1155</v>
       </c>
       <c r="D155" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E155" s="79"/>
     </row>
@@ -59139,7 +59152,7 @@
         <v>1540</v>
       </c>
       <c r="D156" s="79" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="E156" s="79"/>
     </row>
@@ -60005,65 +60018,65 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
     <col min="2" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="53" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1">
       <c r="A2" s="80" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1">
       <c r="A4" s="80" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1">
       <c r="A8" s="80" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1"/>
